--- a/zase4kak/bin/Debug/Lap_time.xlsx
+++ b/zase4kak/bin/Debug/Lap_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8FB1AF6-7579-4E04-8A25-F948B6A865E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0B0E6FC-D107-47FD-BC9A-9E2CC8DD7935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11265" xr2:uid="{96CBC2B2-0DC8-40F1-A350-E0EEB9651E6C}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11265" xr2:uid="{2728884D-3488-43E6-86F7-5F7222145576}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
-  <si>
-    <t>asd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+  <si>
+    <t>qwe</t>
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>qew</t>
   </si>
   <si>
     <t>B</t>
@@ -418,7 +421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A31D7BE-EE4A-4C44-A8A3-A8CCD586A376}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AAA5CC-8783-4643-83F4-C2D2321053B3}">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -443,6 +446,9 @@
       <c r="A2">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
       <c r="C2">
         <v>999</v>
       </c>
@@ -480,7 +486,7 @@
         <v>999</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -491,7 +497,7 @@
         <v>999</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -502,7 +508,7 @@
         <v>999</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -513,7 +519,7 @@
         <v>999</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -524,7 +530,7 @@
         <v>999</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -535,7 +541,7 @@
         <v>999</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -546,7 +552,7 @@
         <v>999</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -557,7 +563,7 @@
         <v>999</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -568,7 +574,7 @@
         <v>999</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -579,7 +585,7 @@
         <v>999</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -590,7 +596,7 @@
         <v>999</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -601,7 +607,7 @@
         <v>999</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -612,7 +618,7 @@
         <v>999</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -623,7 +629,7 @@
         <v>999</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -634,7 +640,7 @@
         <v>999</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -645,7 +651,7 @@
         <v>999</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -656,7 +662,7 @@
         <v>999</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -667,7 +673,7 @@
         <v>999</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,7 +684,7 @@
         <v>999</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -689,7 +695,7 @@
         <v>999</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,7 +706,7 @@
         <v>999</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -711,7 +717,7 @@
         <v>999</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -722,7 +728,7 @@
         <v>999</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -733,7 +739,7 @@
         <v>999</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -744,7 +750,7 @@
         <v>999</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -755,7 +761,7 @@
         <v>999</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -766,7 +772,7 @@
         <v>999</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -777,7 +783,7 @@
         <v>999</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -788,7 +794,7 @@
         <v>999</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -799,7 +805,7 @@
         <v>999</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -810,7 +816,7 @@
         <v>999</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -821,7 +827,7 @@
         <v>999</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -832,7 +838,7 @@
         <v>999</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -843,7 +849,7 @@
         <v>999</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -854,7 +860,7 @@
         <v>999</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -865,7 +871,7 @@
         <v>999</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/Lap_time.xlsx
+++ b/zase4kak/bin/Debug/Lap_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0B0E6FC-D107-47FD-BC9A-9E2CC8DD7935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0D5E068-BE90-47BE-A4DE-F63B8B21BBAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11265" xr2:uid="{2728884D-3488-43E6-86F7-5F7222145576}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{B42633DB-A767-4E01-96A9-9D9FCC008A01}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
-  <si>
-    <t>qwe</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+  <si>
+    <t>Бабій</t>
+  </si>
+  <si>
+    <t>0,435</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>qew</t>
+    <t>Городецький</t>
+  </si>
+  <si>
+    <t>Смик</t>
+  </si>
+  <si>
+    <t>Ванкевич</t>
   </si>
   <si>
     <t>B</t>
@@ -421,7 +430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AAA5CC-8783-4643-83F4-C2D2321053B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD83710-44A6-4028-9E92-34119FAD9764}">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -435,11 +444,11 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
-        <v>999</v>
+      <c r="C1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -447,35 +456,41 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>999</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2">
-        <v>999</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
       <c r="C3">
         <v>999</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
       <c r="C4">
         <v>999</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -486,7 +501,7 @@
         <v>999</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -497,7 +512,7 @@
         <v>999</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -508,7 +523,7 @@
         <v>999</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -519,7 +534,7 @@
         <v>999</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -530,7 +545,7 @@
         <v>999</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -541,7 +556,7 @@
         <v>999</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -552,7 +567,7 @@
         <v>999</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -563,7 +578,7 @@
         <v>999</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -574,7 +589,7 @@
         <v>999</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -585,7 +600,7 @@
         <v>999</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -596,7 +611,7 @@
         <v>999</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -607,7 +622,7 @@
         <v>999</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -618,7 +633,7 @@
         <v>999</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -629,7 +644,7 @@
         <v>999</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,7 +655,7 @@
         <v>999</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -651,7 +666,7 @@
         <v>999</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -662,7 +677,7 @@
         <v>999</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -673,7 +688,7 @@
         <v>999</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -684,7 +699,7 @@
         <v>999</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -695,7 +710,7 @@
         <v>999</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -706,7 +721,7 @@
         <v>999</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -717,7 +732,7 @@
         <v>999</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,7 +743,7 @@
         <v>999</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,7 +754,7 @@
         <v>999</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -750,7 +765,7 @@
         <v>999</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -761,7 +776,7 @@
         <v>999</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -772,7 +787,7 @@
         <v>999</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -783,7 +798,7 @@
         <v>999</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -794,7 +809,7 @@
         <v>999</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -805,7 +820,7 @@
         <v>999</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -816,7 +831,7 @@
         <v>999</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,7 +842,7 @@
         <v>999</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -838,7 +853,7 @@
         <v>999</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -849,7 +864,7 @@
         <v>999</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -860,7 +875,7 @@
         <v>999</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -871,7 +886,7 @@
         <v>999</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/Lap_time.xlsx
+++ b/zase4kak/bin/Debug/Lap_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0D5E068-BE90-47BE-A4DE-F63B8B21BBAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE7EB0C7-090F-4312-8AEA-A9863E4BF78A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{B42633DB-A767-4E01-96A9-9D9FCC008A01}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{B8BD121D-AA70-45A0-B2F1-18A10C6CFE0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>Бабій</t>
   </si>
   <si>
-    <t>0,435</t>
+    <t>0,315</t>
   </si>
   <si>
     <t>A</t>
@@ -48,7 +48,13 @@
     <t>Городецький</t>
   </si>
   <si>
+    <t>0,345</t>
+  </si>
+  <si>
     <t>Смик</t>
+  </si>
+  <si>
+    <t>0,705</t>
   </si>
   <si>
     <t>Ванкевич</t>
@@ -430,7 +436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD83710-44A6-4028-9E92-34119FAD9764}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE86CC2-F8F6-4AA8-B560-DF674A695259}">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -458,8 +464,8 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>999</v>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -470,10 +476,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>999</v>
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -484,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>999</v>
@@ -501,7 +507,7 @@
         <v>999</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -512,7 +518,7 @@
         <v>999</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -523,7 +529,7 @@
         <v>999</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -534,7 +540,7 @@
         <v>999</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,7 +551,7 @@
         <v>999</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -556,7 +562,7 @@
         <v>999</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -567,7 +573,7 @@
         <v>999</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -578,7 +584,7 @@
         <v>999</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,7 +595,7 @@
         <v>999</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -600,7 +606,7 @@
         <v>999</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -611,7 +617,7 @@
         <v>999</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -622,7 +628,7 @@
         <v>999</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -633,7 +639,7 @@
         <v>999</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,7 +650,7 @@
         <v>999</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -655,7 +661,7 @@
         <v>999</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,7 +672,7 @@
         <v>999</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -677,7 +683,7 @@
         <v>999</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -688,7 +694,7 @@
         <v>999</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -699,7 +705,7 @@
         <v>999</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,7 +716,7 @@
         <v>999</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -721,7 +727,7 @@
         <v>999</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -732,7 +738,7 @@
         <v>999</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -743,7 +749,7 @@
         <v>999</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -754,7 +760,7 @@
         <v>999</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -765,7 +771,7 @@
         <v>999</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -776,7 +782,7 @@
         <v>999</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,7 +793,7 @@
         <v>999</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -798,7 +804,7 @@
         <v>999</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -809,7 +815,7 @@
         <v>999</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -820,7 +826,7 @@
         <v>999</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -831,7 +837,7 @@
         <v>999</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -842,7 +848,7 @@
         <v>999</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -853,7 +859,7 @@
         <v>999</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -864,7 +870,7 @@
         <v>999</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -875,7 +881,7 @@
         <v>999</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -886,7 +892,7 @@
         <v>999</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/Lap_time.xlsx
+++ b/zase4kak/bin/Debug/Lap_time.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ooleg\OneDrive\Документы\GitHub\Slotcar-Horodetskylap\zase4kak\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE7EB0C7-090F-4312-8AEA-A9863E4BF78A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFB5866-3682-41A4-AB4A-127E3998B137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{B8BD121D-AA70-45A0-B2F1-18A10C6CFE0A}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{C207AC44-2EFE-4F6A-AD8F-3B4D268A63CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,35 +34,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+  <si>
+    <t>Ванкевич</t>
+  </si>
+  <si>
+    <t>0,165</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Смик</t>
+  </si>
+  <si>
+    <t>0,195</t>
+  </si>
   <si>
     <t>Бабій</t>
   </si>
   <si>
-    <t>0,315</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t>0,555</t>
   </si>
   <si>
     <t>Городецький</t>
   </si>
   <si>
-    <t>0,345</t>
-  </si>
-  <si>
-    <t>Смик</t>
-  </si>
-  <si>
-    <t>0,705</t>
-  </si>
-  <si>
-    <t>Ванкевич</t>
+    <t>Гураль</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
+    <t>Холявка</t>
+  </si>
+  <si>
+    <t>Данило</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
   </si>
   <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -436,10 +448,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE86CC2-F8F6-4AA8-B560-DF674A695259}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CD9E16-C13F-4564-9A45-0697A6B7C65C}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -503,44 +517,56 @@
       <c r="A5">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
       <c r="C5">
         <v>999</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
       <c r="C6">
         <v>999</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
       <c r="C7">
         <v>999</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
       <c r="C8">
         <v>999</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -551,7 +577,7 @@
         <v>999</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -562,7 +588,7 @@
         <v>999</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -573,7 +599,7 @@
         <v>999</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -584,7 +610,7 @@
         <v>999</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -595,7 +621,7 @@
         <v>999</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -606,7 +632,7 @@
         <v>999</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -617,7 +643,7 @@
         <v>999</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -628,7 +654,7 @@
         <v>999</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -639,7 +665,7 @@
         <v>999</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -650,7 +676,7 @@
         <v>999</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -661,7 +687,7 @@
         <v>999</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -672,7 +698,7 @@
         <v>999</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -683,7 +709,7 @@
         <v>999</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -694,7 +720,7 @@
         <v>999</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -705,7 +731,7 @@
         <v>999</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -716,7 +742,7 @@
         <v>999</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -727,7 +753,7 @@
         <v>999</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -738,7 +764,7 @@
         <v>999</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -749,7 +775,7 @@
         <v>999</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -760,7 +786,7 @@
         <v>999</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,7 +797,7 @@
         <v>999</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -782,7 +808,7 @@
         <v>999</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -793,7 +819,7 @@
         <v>999</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -804,7 +830,7 @@
         <v>999</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -815,7 +841,7 @@
         <v>999</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -826,7 +852,7 @@
         <v>999</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -837,7 +863,7 @@
         <v>999</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -848,7 +874,7 @@
         <v>999</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -859,7 +885,7 @@
         <v>999</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -870,7 +896,7 @@
         <v>999</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -881,7 +907,7 @@
         <v>999</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -892,7 +918,7 @@
         <v>999</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/Lap_time.xlsx
+++ b/zase4kak/bin/Debug/Lap_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ooleg\OneDrive\Документы\GitHub\Slotcar-Horodetskylap\zase4kak\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFB5866-3682-41A4-AB4A-127E3998B137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{304E3A97-72C7-460C-9A3F-F84AC0D4BA39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{C207AC44-2EFE-4F6A-AD8F-3B4D268A63CC}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{5D918419-DCF1-4057-B84E-21C11F7EB0CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,44 +34,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+  <si>
+    <t>Городецький</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Смик</t>
+  </si>
+  <si>
+    <t>Бабій</t>
+  </si>
   <si>
     <t>Ванкевич</t>
   </si>
   <si>
-    <t>0,165</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Смик</t>
-  </si>
-  <si>
-    <t>0,195</t>
-  </si>
-  <si>
-    <t>Бабій</t>
-  </si>
-  <si>
-    <t>0,555</t>
-  </si>
-  <si>
-    <t>Городецький</t>
-  </si>
-  <si>
-    <t>Гураль</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>Холявка</t>
-  </si>
-  <si>
-    <t>Данило</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -94,9 +76,6 @@
   </si>
   <si>
     <t>J</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -448,12 +427,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CD9E16-C13F-4564-9A45-0697A6B7C65C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26DBD14-A0AA-4808-8E38-19532665C28F}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -464,11 +441,11 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1">
+        <v>999</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -476,13 +453,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>999</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -490,13 +467,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>999</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -504,69 +481,57 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>999</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
       <c r="C5">
         <v>999</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
       <c r="C6">
         <v>999</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
       <c r="C7">
         <v>999</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
       <c r="C8">
         <v>999</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -577,7 +542,7 @@
         <v>999</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,7 +553,7 @@
         <v>999</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -599,7 +564,7 @@
         <v>999</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -610,7 +575,7 @@
         <v>999</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -621,7 +586,7 @@
         <v>999</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -632,7 +597,7 @@
         <v>999</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -643,7 +608,7 @@
         <v>999</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,7 +619,7 @@
         <v>999</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -665,7 +630,7 @@
         <v>999</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -676,7 +641,7 @@
         <v>999</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,7 +652,7 @@
         <v>999</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,7 +663,7 @@
         <v>999</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,7 +674,7 @@
         <v>999</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -720,7 +685,7 @@
         <v>999</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -731,7 +696,7 @@
         <v>999</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,7 +707,7 @@
         <v>999</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -753,7 +718,7 @@
         <v>999</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,7 +729,7 @@
         <v>999</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -775,7 +740,7 @@
         <v>999</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -786,7 +751,7 @@
         <v>999</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -797,7 +762,7 @@
         <v>999</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -808,7 +773,7 @@
         <v>999</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -819,7 +784,7 @@
         <v>999</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -830,7 +795,7 @@
         <v>999</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -841,7 +806,7 @@
         <v>999</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -852,7 +817,7 @@
         <v>999</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -863,7 +828,7 @@
         <v>999</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -874,7 +839,7 @@
         <v>999</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -885,7 +850,7 @@
         <v>999</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -896,7 +861,7 @@
         <v>999</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -907,7 +872,7 @@
         <v>999</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -918,7 +883,7 @@
         <v>999</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/Lap_time.xlsx
+++ b/zase4kak/bin/Debug/Lap_time.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ooleg\OneDrive\Документы\GitHub\Slotcar-Horodetskylap\zase4kak\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{304E3A97-72C7-460C-9A3F-F84AC0D4BA39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24299931-F477-48D8-9A92-325B1E8906C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{5D918419-DCF1-4057-B84E-21C11F7EB0CC}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{CC3775A3-CB5D-4F39-936C-714962924169}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
-    <t>Городецький</t>
+    <t>jhghd</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>Смик</t>
-  </si>
-  <si>
-    <t>Бабій</t>
-  </si>
-  <si>
-    <t>Ванкевич</t>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>sdff</t>
+  </si>
+  <si>
+    <t>resf</t>
   </si>
   <si>
     <t>B</t>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26DBD14-A0AA-4808-8E38-19532665C28F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF5ECDE-875E-40AE-B4BA-18DCB55C0192}">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/zase4kak/bin/Debug/Lap_time.xlsx
+++ b/zase4kak/bin/Debug/Lap_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24299931-F477-48D8-9A92-325B1E8906C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{416956DA-5804-4C13-B19B-2A3C4786CA25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{CC3775A3-CB5D-4F39-936C-714962924169}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{3D2406DA-4A13-4A69-8F73-87E6D1572849}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,24 +34,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
-  <si>
-    <t>jhghd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+  <si>
+    <t>Городецький Олег</t>
+  </si>
+  <si>
+    <t>0,045</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>sdff</t>
-  </si>
-  <si>
-    <t>resf</t>
+    <t>Смик Богдан</t>
+  </si>
+  <si>
+    <t>Ванкевич Ігор</t>
+  </si>
+  <si>
+    <t>Бабій Тарас</t>
+  </si>
+  <si>
+    <t>Щербина Юхим</t>
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Демідов Олексій</t>
+  </si>
+  <si>
+    <t>Прядко Тарас</t>
+  </si>
+  <si>
+    <t>Гураль Тарас</t>
   </si>
   <si>
     <t>C</t>
@@ -427,7 +442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF5ECDE-875E-40AE-B4BA-18DCB55C0192}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18323B1-EED9-450B-AD9F-3361EAE137A0}">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -441,11 +456,11 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
-        <v>999</v>
+      <c r="C1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -453,13 +468,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2">
-        <v>999</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -467,13 +482,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>999</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -481,57 +496,69 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>999</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
       <c r="C5">
         <v>999</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
       <c r="C6">
         <v>999</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
       <c r="C7">
         <v>999</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
       <c r="C8">
         <v>999</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -542,7 +569,7 @@
         <v>999</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -553,7 +580,7 @@
         <v>999</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -564,7 +591,7 @@
         <v>999</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -575,7 +602,7 @@
         <v>999</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -586,7 +613,7 @@
         <v>999</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -597,7 +624,7 @@
         <v>999</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -608,7 +635,7 @@
         <v>999</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -619,7 +646,7 @@
         <v>999</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -630,7 +657,7 @@
         <v>999</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -641,7 +668,7 @@
         <v>999</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -652,7 +679,7 @@
         <v>999</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -663,7 +690,7 @@
         <v>999</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -674,7 +701,7 @@
         <v>999</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -685,7 +712,7 @@
         <v>999</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,7 +723,7 @@
         <v>999</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -707,7 +734,7 @@
         <v>999</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -718,7 +745,7 @@
         <v>999</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,7 +756,7 @@
         <v>999</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -740,7 +767,7 @@
         <v>999</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -751,7 +778,7 @@
         <v>999</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -762,7 +789,7 @@
         <v>999</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -773,7 +800,7 @@
         <v>999</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -784,7 +811,7 @@
         <v>999</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -795,7 +822,7 @@
         <v>999</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -806,7 +833,7 @@
         <v>999</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -817,7 +844,7 @@
         <v>999</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,7 +855,7 @@
         <v>999</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -839,7 +866,7 @@
         <v>999</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -850,7 +877,7 @@
         <v>999</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -861,7 +888,7 @@
         <v>999</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -872,7 +899,7 @@
         <v>999</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -883,7 +910,7 @@
         <v>999</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/Lap_time.xlsx
+++ b/zase4kak/bin/Debug/Lap_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{416956DA-5804-4C13-B19B-2A3C4786CA25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{442AFD6D-FD72-4B62-8586-356ED828D475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{3D2406DA-4A13-4A69-8F73-87E6D1572849}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{780662F2-F872-4493-8047-ADB57F99B0F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,39 +34,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>Городецький Олег</t>
   </si>
   <si>
-    <t>0,045</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>Смик Богдан</t>
   </si>
   <si>
+    <t>Бабій Тарас</t>
+  </si>
+  <si>
+    <t>Гураль Тарас</t>
+  </si>
+  <si>
     <t>Ванкевич Ігор</t>
   </si>
   <si>
-    <t>Бабій Тарас</t>
+    <t>B</t>
   </si>
   <si>
     <t>Щербина Юхим</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Демідов Олексій</t>
   </si>
   <si>
-    <t>Прядко Тарас</t>
-  </si>
-  <si>
-    <t>Гураль Тарас</t>
+    <t>Паращак Юрій</t>
   </si>
   <si>
     <t>C</t>
@@ -442,7 +439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18323B1-EED9-450B-AD9F-3361EAE137A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB8DE28-0FFA-462A-A92B-4FF472DE1BB0}">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -456,11 +453,11 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1">
+        <v>999</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -468,13 +465,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>999</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -482,13 +479,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>999</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -496,13 +493,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>999</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -510,13 +507,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>999</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
-      </c>
-      <c r="C5">
-        <v>999</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -524,13 +521,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>999</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -538,13 +535,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>999</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -552,13 +549,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>999</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -569,7 +566,7 @@
         <v>999</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -580,7 +577,7 @@
         <v>999</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -591,7 +588,7 @@
         <v>999</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,7 +599,7 @@
         <v>999</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -613,7 +610,7 @@
         <v>999</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -624,7 +621,7 @@
         <v>999</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -635,7 +632,7 @@
         <v>999</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -646,7 +643,7 @@
         <v>999</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -657,7 +654,7 @@
         <v>999</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,7 +665,7 @@
         <v>999</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -679,7 +676,7 @@
         <v>999</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -690,7 +687,7 @@
         <v>999</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,7 +698,7 @@
         <v>999</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -712,7 +709,7 @@
         <v>999</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,7 +720,7 @@
         <v>999</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -734,7 +731,7 @@
         <v>999</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -745,7 +742,7 @@
         <v>999</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -756,7 +753,7 @@
         <v>999</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -767,7 +764,7 @@
         <v>999</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,7 +775,7 @@
         <v>999</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -789,7 +786,7 @@
         <v>999</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -800,7 +797,7 @@
         <v>999</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -811,7 +808,7 @@
         <v>999</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -822,7 +819,7 @@
         <v>999</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -833,7 +830,7 @@
         <v>999</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -844,7 +841,7 @@
         <v>999</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -855,7 +852,7 @@
         <v>999</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -866,7 +863,7 @@
         <v>999</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -877,7 +874,7 @@
         <v>999</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -888,7 +885,7 @@
         <v>999</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -899,7 +896,7 @@
         <v>999</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -910,7 +907,7 @@
         <v>999</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/Lap_time.xlsx
+++ b/zase4kak/bin/Debug/Lap_time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{442AFD6D-FD72-4B62-8586-356ED828D475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32F68FF9-3C7E-49B2-AD8F-46E70E6E5A0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{780662F2-F872-4493-8047-ADB57F99B0F9}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{81B970C8-B4CF-4BAD-97B7-28B7901D6629}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,36 +34,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
-  <si>
-    <t>Городецький Олег</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
+  <si>
+    <t>Смик</t>
+  </si>
+  <si>
+    <t>0,680</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>Смик Богдан</t>
-  </si>
-  <si>
-    <t>Бабій Тарас</t>
-  </si>
-  <si>
-    <t>Гураль Тарас</t>
-  </si>
-  <si>
-    <t>Ванкевич Ігор</t>
+    <t>Бабій</t>
+  </si>
+  <si>
+    <t>Демідов</t>
+  </si>
+  <si>
+    <t>Городецький</t>
+  </si>
+  <si>
+    <t>Щербина</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>Щербина Юхим</t>
-  </si>
-  <si>
-    <t>Демідов Олексій</t>
-  </si>
-  <si>
-    <t>Паращак Юрій</t>
+    <t>Ванкевич</t>
+  </si>
+  <si>
+    <t>Гураль</t>
+  </si>
+  <si>
+    <t>Паращак</t>
   </si>
   <si>
     <t>C</t>
@@ -88,6 +91,21 @@
   </si>
   <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -124,8 +142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -439,8 +458,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB8DE28-0FFA-462A-A92B-4FF472DE1BB0}">
-  <dimension ref="A1:D40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0E9B66-88E1-414A-A262-C19940F2DDC5}">
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,11 +472,11 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
-        <v>999</v>
+      <c r="C1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -465,13 +484,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1785</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2">
-        <v>999</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -479,13 +498,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>999</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2023</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -493,13 +512,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>999</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2193</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,13 +526,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>999</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2227</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -521,13 +540,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3332</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
-      </c>
-      <c r="C6">
-        <v>999</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -535,13 +554,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>999</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4828</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -549,13 +568,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>999</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -566,7 +585,7 @@
         <v>999</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -577,7 +596,7 @@
         <v>999</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,7 +607,7 @@
         <v>999</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -599,7 +618,7 @@
         <v>999</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -610,7 +629,7 @@
         <v>999</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -621,7 +640,7 @@
         <v>999</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -632,7 +651,7 @@
         <v>999</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -643,7 +662,7 @@
         <v>999</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,7 +673,7 @@
         <v>999</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -665,7 +684,7 @@
         <v>999</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -676,7 +695,7 @@
         <v>999</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,7 +706,7 @@
         <v>999</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,7 +717,7 @@
         <v>999</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,7 +728,7 @@
         <v>999</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -720,7 +739,7 @@
         <v>999</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -731,7 +750,7 @@
         <v>999</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,7 +761,7 @@
         <v>999</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -753,7 +772,7 @@
         <v>999</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,7 +783,7 @@
         <v>999</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -775,7 +794,7 @@
         <v>999</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -786,7 +805,7 @@
         <v>999</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -797,7 +816,7 @@
         <v>999</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -808,7 +827,7 @@
         <v>999</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -819,7 +838,7 @@
         <v>999</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -830,7 +849,7 @@
         <v>999</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -841,7 +860,7 @@
         <v>999</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -852,7 +871,7 @@
         <v>999</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -863,7 +882,7 @@
         <v>999</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -874,7 +893,7 @@
         <v>999</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -885,7 +904,7 @@
         <v>999</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -896,7 +915,7 @@
         <v>999</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -907,7 +926,227 @@
         <v>999</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>999</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>999</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>999</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>999</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>999</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>999</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>999</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>999</v>
+      </c>
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>999</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>999</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>999</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>999</v>
+      </c>
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="C53">
+        <v>999</v>
+      </c>
+      <c r="D53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="C54">
+        <v>999</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="C55">
+        <v>999</v>
+      </c>
+      <c r="D55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="C56">
+        <v>999</v>
+      </c>
+      <c r="D56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="C57">
+        <v>999</v>
+      </c>
+      <c r="D57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="C58">
+        <v>999</v>
+      </c>
+      <c r="D58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="C59">
+        <v>999</v>
+      </c>
+      <c r="D59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="C60">
+        <v>999</v>
+      </c>
+      <c r="D60" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/Lap_time.xlsx
+++ b/zase4kak/bin/Debug/Lap_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32F68FF9-3C7E-49B2-AD8F-46E70E6E5A0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{32F68FF9-3C7E-49B2-AD8F-46E70E6E5A0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D45DC55-B395-407F-82B9-A619D80AFBD9}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{81B970C8-B4CF-4BAD-97B7-28B7901D6629}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81B970C8-B4CF-4BAD-97B7-28B7901D6629}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
   <si>
     <t>Смик</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0E9B66-88E1-414A-A262-C19940F2DDC5}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -581,6 +586,9 @@
       <c r="A9">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
       <c r="C9">
         <v>999</v>
       </c>
@@ -592,6 +600,9 @@
       <c r="A10">
         <v>10</v>
       </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
       <c r="C10">
         <v>999</v>
       </c>
@@ -603,6 +614,9 @@
       <c r="A11">
         <v>11</v>
       </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
       <c r="C11">
         <v>999</v>
       </c>
@@ -613,6 +627,9 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
       </c>
       <c r="C12">
         <v>999</v>

--- a/zase4kak/bin/Debug/Lap_time.xlsx
+++ b/zase4kak/bin/Debug/Lap_time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{32F68FF9-3C7E-49B2-AD8F-46E70E6E5A0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D45DC55-B395-407F-82B9-A619D80AFBD9}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{32F68FF9-3C7E-49B2-AD8F-46E70E6E5A0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FD7AC111-ECC3-4DC6-9BA5-9285E2BBBB56}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81B970C8-B4CF-4BAD-97B7-28B7901D6629}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{81B970C8-B4CF-4BAD-97B7-28B7901D6629}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
   <si>
     <t>Смик</t>
   </si>
@@ -60,9 +60,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>Ванкевич</t>
-  </si>
-  <si>
     <t>Гураль</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>ванкевич</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,9 +544,6 @@
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="1">
         <v>3332</v>
       </c>
@@ -559,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>4828</v>
@@ -573,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>999</v>
@@ -593,7 +590,7 @@
         <v>999</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -601,13 +598,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>999</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -615,13 +612,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>999</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -629,13 +626,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>999</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -646,7 +643,7 @@
         <v>999</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -657,7 +654,7 @@
         <v>999</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,7 +665,7 @@
         <v>999</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -679,7 +676,7 @@
         <v>999</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -690,7 +687,7 @@
         <v>999</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,7 +698,7 @@
         <v>999</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -712,7 +709,7 @@
         <v>999</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,7 +720,7 @@
         <v>999</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -734,7 +731,7 @@
         <v>999</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -745,7 +742,7 @@
         <v>999</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -756,7 +753,7 @@
         <v>999</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -767,7 +764,7 @@
         <v>999</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,7 +775,7 @@
         <v>999</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -789,7 +786,7 @@
         <v>999</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -800,7 +797,7 @@
         <v>999</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -811,7 +808,7 @@
         <v>999</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -822,7 +819,7 @@
         <v>999</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -833,7 +830,7 @@
         <v>999</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -844,7 +841,7 @@
         <v>999</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -855,7 +852,7 @@
         <v>999</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -866,7 +863,7 @@
         <v>999</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -877,7 +874,7 @@
         <v>999</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -888,7 +885,7 @@
         <v>999</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -899,7 +896,7 @@
         <v>999</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -910,7 +907,7 @@
         <v>999</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -921,7 +918,7 @@
         <v>999</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -932,7 +929,7 @@
         <v>999</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -943,7 +940,7 @@
         <v>999</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -954,7 +951,7 @@
         <v>999</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -965,7 +962,7 @@
         <v>999</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -976,7 +973,7 @@
         <v>999</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -987,7 +984,7 @@
         <v>999</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -998,7 +995,7 @@
         <v>999</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1009,7 +1006,7 @@
         <v>999</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1020,7 +1017,7 @@
         <v>999</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1031,7 +1028,7 @@
         <v>999</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1042,7 +1039,7 @@
         <v>999</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,7 +1050,7 @@
         <v>999</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1064,7 +1061,7 @@
         <v>999</v>
       </c>
       <c r="D51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1075,7 +1072,7 @@
         <v>999</v>
       </c>
       <c r="D52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1086,7 +1083,7 @@
         <v>999</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1097,7 +1094,7 @@
         <v>999</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1108,7 +1105,7 @@
         <v>999</v>
       </c>
       <c r="D55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1119,7 +1116,7 @@
         <v>999</v>
       </c>
       <c r="D56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1130,7 +1127,7 @@
         <v>999</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1141,7 +1138,7 @@
         <v>999</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1152,7 +1149,7 @@
         <v>999</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1163,7 +1160,7 @@
         <v>999</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/Lap_time.xlsx
+++ b/zase4kak/bin/Debug/Lap_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{32F68FF9-3C7E-49B2-AD8F-46E70E6E5A0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FD7AC111-ECC3-4DC6-9BA5-9285E2BBBB56}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{32F68FF9-3C7E-49B2-AD8F-46E70E6E5A0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3476037E-7DD4-4644-99D5-616E49B21DA4}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{81B970C8-B4CF-4BAD-97B7-28B7901D6629}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81B970C8-B4CF-4BAD-97B7-28B7901D6629}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
-  <si>
-    <t>Смик</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="17">
   <si>
     <t>0,680</t>
   </si>
@@ -45,27 +42,9 @@
     <t>A</t>
   </si>
   <si>
-    <t>Бабій</t>
-  </si>
-  <si>
-    <t>Демідов</t>
-  </si>
-  <si>
-    <t>Городецький</t>
-  </si>
-  <si>
-    <t>Щербина</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>Гураль</t>
-  </si>
-  <si>
-    <t>Паращак</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -105,10 +84,7 @@
     <t>O</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>ванкевич</t>
+    <t>а</t>
   </si>
 </sst>
 </file>
@@ -465,7 +441,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,13 +451,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -489,13 +465,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>1785</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -503,13 +479,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>2023</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -517,13 +493,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>2193</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,24 +507,27 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>2227</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" s="1">
         <v>3332</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -556,13 +535,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>4828</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,69 +549,57 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>999</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
       <c r="C9">
         <v>999</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
       <c r="C10">
         <v>999</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
       <c r="C11">
         <v>999</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
       <c r="C12">
         <v>999</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -643,7 +610,7 @@
         <v>999</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,7 +621,7 @@
         <v>999</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -665,7 +632,7 @@
         <v>999</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -676,7 +643,7 @@
         <v>999</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,7 +654,7 @@
         <v>999</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,7 +665,7 @@
         <v>999</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,7 +676,7 @@
         <v>999</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -720,7 +687,7 @@
         <v>999</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -731,7 +698,7 @@
         <v>999</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,7 +709,7 @@
         <v>999</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -753,7 +720,7 @@
         <v>999</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,7 +731,7 @@
         <v>999</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -775,7 +742,7 @@
         <v>999</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -786,7 +753,7 @@
         <v>999</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -797,7 +764,7 @@
         <v>999</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -808,7 +775,7 @@
         <v>999</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -819,7 +786,7 @@
         <v>999</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -830,7 +797,7 @@
         <v>999</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -841,7 +808,7 @@
         <v>999</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -852,7 +819,7 @@
         <v>999</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -863,7 +830,7 @@
         <v>999</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -874,7 +841,7 @@
         <v>999</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -885,7 +852,7 @@
         <v>999</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -896,7 +863,7 @@
         <v>999</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -907,7 +874,7 @@
         <v>999</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -918,7 +885,7 @@
         <v>999</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -929,7 +896,7 @@
         <v>999</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -940,7 +907,7 @@
         <v>999</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -951,7 +918,7 @@
         <v>999</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -962,7 +929,7 @@
         <v>999</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -973,7 +940,7 @@
         <v>999</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -984,7 +951,7 @@
         <v>999</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -995,7 +962,7 @@
         <v>999</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1006,7 +973,7 @@
         <v>999</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1017,7 +984,7 @@
         <v>999</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1028,7 +995,7 @@
         <v>999</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1039,7 +1006,7 @@
         <v>999</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1050,7 +1017,7 @@
         <v>999</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1061,7 +1028,7 @@
         <v>999</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1072,7 +1039,7 @@
         <v>999</v>
       </c>
       <c r="D52" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1083,7 +1050,7 @@
         <v>999</v>
       </c>
       <c r="D53" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1094,7 +1061,7 @@
         <v>999</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1105,7 +1072,7 @@
         <v>999</v>
       </c>
       <c r="D55" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1116,7 +1083,7 @@
         <v>999</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1127,7 +1094,7 @@
         <v>999</v>
       </c>
       <c r="D57" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1138,7 +1105,7 @@
         <v>999</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1149,7 +1116,7 @@
         <v>999</v>
       </c>
       <c r="D59" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1160,7 +1127,7 @@
         <v>999</v>
       </c>
       <c r="D60" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/Lap_time.xlsx
+++ b/zase4kak/bin/Debug/Lap_time.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{32F68FF9-3C7E-49B2-AD8F-46E70E6E5A0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3476037E-7DD4-4644-99D5-616E49B21DA4}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{32F68FF9-3C7E-49B2-AD8F-46E70E6E5A0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2A0FD3D1-AE66-4319-BD61-DBC6A5A56200}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81B970C8-B4CF-4BAD-97B7-28B7901D6629}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="20">
   <si>
     <t>0,680</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>а</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>Городецький/музика</t>
+  </si>
+  <si>
+    <t>Гоородецький-Музика</t>
   </si>
 </sst>
 </file>
@@ -441,7 +450,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +460,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -507,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>2227</v>
@@ -549,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>999</v>

--- a/zase4kak/bin/Debug/Lap_time.xlsx
+++ b/zase4kak/bin/Debug/Lap_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{32F68FF9-3C7E-49B2-AD8F-46E70E6E5A0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2A0FD3D1-AE66-4319-BD61-DBC6A5A56200}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{32F68FF9-3C7E-49B2-AD8F-46E70E6E5A0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{032C0EE4-5159-4574-91B6-DBE0274AAD04}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81B970C8-B4CF-4BAD-97B7-28B7901D6629}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{81B970C8-B4CF-4BAD-97B7-28B7901D6629}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="23">
   <si>
     <t>0,680</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>Гоородецький-Музика</t>
+  </si>
+  <si>
+    <t>йцуй</t>
+  </si>
+  <si>
+    <t>вфі</t>
+  </si>
+  <si>
+    <t>фві</t>
   </si>
 </sst>
 </file>
@@ -450,7 +459,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,6 +580,9 @@
       <c r="A9">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
       <c r="C9">
         <v>999</v>
       </c>
@@ -582,6 +594,9 @@
       <c r="A10">
         <v>10</v>
       </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
       <c r="C10">
         <v>999</v>
       </c>
@@ -593,6 +608,9 @@
       <c r="A11">
         <v>11</v>
       </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
       <c r="C11">
         <v>999</v>
       </c>
@@ -603,6 +621,9 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
       </c>
       <c r="C12">
         <v>999</v>
